--- a/_data/Schedule.xlsx
+++ b/_data/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dellaert/git/20F-6476/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E452CC-B440-D840-949E-59411AC09F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20CF5764-85E0-244F-A2D6-BE0D14146F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17540" xr2:uid="{A1DFEAF9-000F-9C46-91CA-3381F6C009A2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="60">
   <si>
     <t>Slides</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>S07-Learning-CNNs</t>
+  </si>
+  <si>
+    <t>CNNs</t>
+  </si>
+  <si>
+    <t>S08-Recognition</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,10 +959,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -979,10 +985,10 @@
         <v>15</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -1003,10 +1009,10 @@
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -1030,10 +1036,10 @@
         <v>15</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1054,10 +1060,10 @@
         <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
